--- a/data_config/EntityAttrLevel.xlsx
+++ b/data_config/EntityAttrLevel.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="15960" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -54,6 +67,21 @@
     <t>attackRange</t>
   </si>
   <si>
+    <t>inputDamageRate</t>
+  </si>
+  <si>
+    <t>outputDamageRate</t>
+  </si>
+  <si>
+    <t>critRate</t>
+  </si>
+  <si>
+    <t>critDamage</t>
+  </si>
+  <si>
+    <t>skillCD</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -94,6 +122,21 @@
   </si>
   <si>
     <t>攻击距离(*1000)</t>
+  </si>
+  <si>
+    <t>承受伤害千分比</t>
+  </si>
+  <si>
+    <t>输出伤害千分比</t>
+  </si>
+  <si>
+    <t>暴击几率（千分比）</t>
+  </si>
+  <si>
+    <t>暴击伤害（千分比）</t>
+  </si>
+  <si>
+    <t>技能冷却</t>
   </si>
   <si>
     <t>上官翎</t>
@@ -183,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -200,34 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -241,14 +256,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,6 +295,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,7 +360,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,55 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,31 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +456,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,7 +480,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +564,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -544,21 +587,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,6 +619,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,148 +692,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,52 +871,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1173,10 +1216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1187,9 +1230,10 @@
     <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,84 +1270,129 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:17">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1317,31 +1406,40 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1378,8 +1476,17 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6">
         <v>10000</v>
@@ -1416,8 +1523,17 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:12">
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6">
         <v>10000</v>
@@ -1454,8 +1570,13 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6">
         <v>10000</v>
@@ -1492,8 +1613,13 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6">
         <v>10000</v>
@@ -1530,8 +1656,17 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6">
         <v>10000</v>
@@ -1568,8 +1703,17 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6">
         <v>10000</v>
@@ -1606,8 +1750,13 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6">
         <v>10000</v>
@@ -1644,8 +1793,13 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6">
         <v>10000</v>
@@ -1682,8 +1836,13 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6">
         <v>10000</v>
@@ -1720,8 +1879,13 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6">
         <v>10000</v>
@@ -1758,8 +1922,13 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1942,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F16" s="6">
         <v>10000</v>
@@ -1796,8 +1965,13 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F17" s="6">
         <v>10000</v>
@@ -1834,8 +2008,17 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F18" s="6">
         <v>10000</v>
@@ -1872,8 +2055,13 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +2075,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F19" s="6">
         <v>10000</v>
@@ -1910,8 +2098,13 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +2118,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F20" s="6">
         <v>10000</v>
@@ -1948,8 +2141,13 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +2161,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F21" s="6">
         <v>10000</v>
@@ -1986,8 +2184,13 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6">
         <v>10000</v>
@@ -2024,8 +2227,13 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2247,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F23" s="6">
         <v>10000</v>
@@ -2062,8 +2270,13 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2290,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F24" s="6">
         <v>10000</v>
@@ -2100,8 +2313,13 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2333,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F25" s="6">
         <v>10000</v>
@@ -2138,8 +2356,13 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2376,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F26" s="6">
         <v>10000</v>
@@ -2176,8 +2399,13 @@
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2419,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F27" s="6">
         <v>10000</v>
@@ -2214,8 +2442,13 @@
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2462,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F28" s="6">
         <v>10000</v>
@@ -2250,6 +2483,11 @@
         <v>1250</v>
       </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28">
         <v>0</v>
       </c>
     </row>
@@ -2261,7 +2499,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2275,31 +2513,36 @@
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2313,10 +2556,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G31" s="6">
         <v>11</v>
@@ -2334,10 +2577,15 @@
         <v>500</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2351,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G32" s="6">
         <v>12</v>
@@ -2372,10 +2620,15 @@
         <v>501</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:15">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2389,10 +2642,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G33" s="6">
         <v>13</v>
@@ -2410,10 +2663,15 @@
         <v>502</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2427,10 +2685,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G34" s="6">
         <v>14</v>
@@ -2448,10 +2706,15 @@
         <v>503</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2465,10 +2728,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G35" s="6">
         <v>15</v>
@@ -2486,10 +2749,15 @@
         <v>504</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2503,10 +2771,10 @@
         <v>7</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G36" s="6">
         <v>16</v>
@@ -2524,10 +2792,15 @@
         <v>505</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2541,10 +2814,10 @@
         <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G37" s="6">
         <v>17</v>
@@ -2562,10 +2835,15 @@
         <v>506</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2579,10 +2857,10 @@
         <v>9</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G38" s="6">
         <v>18</v>
@@ -2600,10 +2878,15 @@
         <v>507</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2617,10 +2900,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G39" s="6">
         <v>19</v>
@@ -2638,10 +2921,15 @@
         <v>508</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2655,10 +2943,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G40" s="6">
         <v>20</v>
@@ -2676,10 +2964,15 @@
         <v>509</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2693,10 +2986,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G41" s="6">
         <v>21</v>
@@ -2714,10 +3007,15 @@
         <v>510</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2731,10 +3029,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G42" s="6">
         <v>22</v>
@@ -2752,10 +3050,15 @@
         <v>511</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2769,10 +3072,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G43" s="6">
         <v>23</v>
@@ -2790,10 +3093,15 @@
         <v>512</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2807,10 +3115,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G44" s="6">
         <v>24</v>
@@ -2828,10 +3136,15 @@
         <v>513</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2845,10 +3158,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G45" s="6">
         <v>25</v>
@@ -2866,10 +3179,15 @@
         <v>514</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2883,10 +3201,10 @@
         <v>17</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G46" s="6">
         <v>26</v>
@@ -2904,10 +3222,15 @@
         <v>515</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2921,10 +3244,10 @@
         <v>18</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G47" s="6">
         <v>27</v>
@@ -2942,10 +3265,15 @@
         <v>516</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2959,10 +3287,10 @@
         <v>19</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G48" s="6">
         <v>28</v>
@@ -2980,10 +3308,15 @@
         <v>517</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2997,10 +3330,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G49" s="6">
         <v>29</v>
@@ -3018,10 +3351,15 @@
         <v>518</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3035,10 +3373,10 @@
         <v>21</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G50" s="6">
         <v>30</v>
@@ -3056,10 +3394,15 @@
         <v>519</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3073,10 +3416,10 @@
         <v>22</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G51" s="6">
         <v>31</v>
@@ -3094,10 +3437,15 @@
         <v>520</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3111,10 +3459,10 @@
         <v>23</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G52" s="6">
         <v>32</v>
@@ -3132,10 +3480,15 @@
         <v>521</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3149,10 +3502,10 @@
         <v>24</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G53" s="6">
         <v>33</v>
@@ -3170,10 +3523,15 @@
         <v>522</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3187,10 +3545,10 @@
         <v>25</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G54" s="6">
         <v>34</v>
@@ -3208,10 +3566,15 @@
         <v>523</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3225,31 +3588,36 @@
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3263,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F57" s="6">
         <v>1</v>
@@ -3284,10 +3652,15 @@
         <v>1</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F58" s="6">
         <v>2</v>
@@ -3322,10 +3695,15 @@
         <v>2</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" ht="15" customHeight="1" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" spans="1:15">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3717,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F59" s="6">
         <v>3</v>
@@ -3360,10 +3738,15 @@
         <v>3</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +3760,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F60" s="6">
         <v>4</v>
@@ -3398,10 +3781,15 @@
         <v>4</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F61" s="6">
         <v>5</v>
@@ -3436,10 +3824,15 @@
         <v>5</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3846,7 @@
         <v>7</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F62" s="6">
         <v>6</v>
@@ -3474,10 +3867,15 @@
         <v>6</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3889,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F63" s="6">
         <v>7</v>
@@ -3512,10 +3910,15 @@
         <v>7</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3529,7 +3932,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F64" s="6">
         <v>8</v>
@@ -3550,10 +3953,15 @@
         <v>8</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3567,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F65" s="6">
         <v>9</v>
@@ -3588,10 +3996,15 @@
         <v>9</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F66" s="6">
         <v>10</v>
@@ -3626,10 +4039,15 @@
         <v>10</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3643,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F67" s="6">
         <v>11</v>
@@ -3664,10 +4082,15 @@
         <v>11</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3681,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F68" s="6">
         <v>12</v>
@@ -3702,10 +4125,15 @@
         <v>12</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +4147,7 @@
         <v>14</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F69" s="6">
         <v>13</v>
@@ -3740,10 +4168,15 @@
         <v>13</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3757,7 +4190,7 @@
         <v>15</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F70" s="6">
         <v>14</v>
@@ -3778,10 +4211,15 @@
         <v>14</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +4233,7 @@
         <v>16</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F71" s="6">
         <v>15</v>
@@ -3816,10 +4254,15 @@
         <v>15</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3833,7 +4276,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F72" s="6">
         <v>16</v>
@@ -3854,10 +4297,15 @@
         <v>16</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3871,7 +4319,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F73" s="6">
         <v>17</v>
@@ -3892,10 +4340,15 @@
         <v>17</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3909,7 +4362,7 @@
         <v>19</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F74" s="6">
         <v>18</v>
@@ -3930,10 +4383,15 @@
         <v>18</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3947,7 +4405,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F75" s="6">
         <v>19</v>
@@ -3968,10 +4426,15 @@
         <v>19</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +4448,7 @@
         <v>21</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F76" s="6">
         <v>20</v>
@@ -4006,10 +4469,15 @@
         <v>20</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4491,7 @@
         <v>22</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F77" s="6">
         <v>21</v>
@@ -4044,10 +4512,15 @@
         <v>21</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -4061,7 +4534,7 @@
         <v>23</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F78" s="6">
         <v>22</v>
@@ -4082,10 +4555,15 @@
         <v>22</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +4577,7 @@
         <v>24</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F79" s="6">
         <v>23</v>
@@ -4120,10 +4598,15 @@
         <v>23</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -4137,7 +4620,7 @@
         <v>25</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F80" s="6">
         <v>24</v>
@@ -4158,7 +4641,12 @@
         <v>24</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
